--- a/sub_projs/MTSV_USFS/mtsv_data_publish.xlsx
+++ b/sub_projs/MTSV_USFS/mtsv_data_publish.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/proterant/sub_projs/MTSV_USFS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB6B829-FF21-8C46-A9D6-DB0370D67664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="2960" windowWidth="47340" windowHeight="23900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10440" yWindow="12260" windowWidth="47340" windowHeight="23900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="michdata_final.csv" sheetId="1" r:id="rId1"/>
     <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="420">
   <si>
     <t>Family</t>
   </si>
@@ -1234,12 +1240,6 @@
     <t>binary of pollination syndrome, 1=wind, 0-insect</t>
   </si>
   <si>
-    <t>minimum precipitation recorded across species'range</t>
-  </si>
-  <si>
-    <t>minimum temperature recorded across species'range</t>
-  </si>
-  <si>
     <t>USDA CPC</t>
   </si>
   <si>
@@ -1253,12 +1253,45 @@
   </si>
   <si>
     <t>source (if outside of MTSV)</t>
+  </si>
+  <si>
+    <t>minimum precipitation recorded across species'range  (unit=in)</t>
+  </si>
+  <si>
+    <t>minimum temperature recorded across species'range (degrees Fareinheit)</t>
+  </si>
+  <si>
+    <t>flowers with leaves</t>
+  </si>
+  <si>
+    <t>flowers after leaves</t>
+  </si>
+  <si>
+    <t>flowers before leaves (hysteranthous)</t>
+  </si>
+  <si>
+    <t>hysteranthous</t>
+  </si>
+  <si>
+    <t>Phen.sequences= pro,pro/syn,syn</t>
+  </si>
+  <si>
+    <t>Phen.sequence=pro</t>
+  </si>
+  <si>
+    <t>seranthous</t>
+  </si>
+  <si>
+    <t>Phen.sequence=pro/syn,syn,syn/ser,ser</t>
+  </si>
+  <si>
+    <t>Phen.sequence=syn/ser,ser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1383,6 +1416,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1707,19 +1748,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1807,7 +1848,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1892,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1895,7 +1936,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1939,7 +1980,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +2024,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2027,7 +2068,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2071,7 +2112,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2115,7 +2156,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2159,7 +2200,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2203,7 +2244,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2247,7 +2288,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2291,7 +2332,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2335,7 +2376,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2379,7 +2420,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2423,7 +2464,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -2467,7 +2508,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -2511,7 +2552,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2555,7 +2596,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -2599,7 +2640,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -2643,7 +2684,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -2687,7 +2728,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2731,7 +2772,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -2775,7 +2816,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -2819,7 +2860,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -2863,7 +2904,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -2907,7 +2948,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -2951,7 +2992,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -2995,7 +3036,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -3039,7 +3080,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -3083,7 +3124,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -3127,7 +3168,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -3171,7 +3212,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -3215,7 +3256,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -3259,7 +3300,7 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -3303,7 +3344,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -3347,7 +3388,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3391,7 +3432,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -3435,7 +3476,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -3479,7 +3520,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -3523,7 +3564,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -3567,7 +3608,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -3611,7 +3652,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -3655,7 +3696,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -3699,7 +3740,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -3743,7 +3784,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -3787,7 +3828,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -3831,7 +3872,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -3875,7 +3916,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -3919,7 +3960,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -3963,7 +4004,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -4007,7 +4048,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -4051,7 +4092,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -4095,7 +4136,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -4139,7 +4180,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -4183,7 +4224,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>156</v>
       </c>
@@ -4227,7 +4268,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -4271,7 +4312,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -4315,7 +4356,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>156</v>
       </c>
@@ -4359,7 +4400,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -4403,7 +4444,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -4447,7 +4488,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -4491,7 +4532,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -4535,7 +4576,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -4579,7 +4620,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -4623,7 +4664,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -4667,7 +4708,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -4711,7 +4752,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -4755,7 +4796,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -4799,7 +4840,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -4843,7 +4884,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -4887,7 +4928,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -4931,7 +4972,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>203</v>
       </c>
@@ -4975,7 +5016,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -5019,7 +5060,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -5063,7 +5104,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>203</v>
       </c>
@@ -5107,7 +5148,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -5151,7 +5192,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -5195,7 +5236,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>203</v>
       </c>
@@ -5239,7 +5280,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>230</v>
       </c>
@@ -5283,7 +5324,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>230</v>
       </c>
@@ -5327,7 +5368,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>230</v>
       </c>
@@ -5371,7 +5412,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>240</v>
       </c>
@@ -5415,7 +5456,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>240</v>
       </c>
@@ -5459,7 +5500,7 @@
         <v>-63</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5503,7 +5544,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>247</v>
       </c>
@@ -5547,7 +5588,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>247</v>
       </c>
@@ -5591,7 +5632,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>247</v>
       </c>
@@ -5635,7 +5676,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>254</v>
       </c>
@@ -5679,7 +5720,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>257</v>
       </c>
@@ -5723,7 +5764,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>257</v>
       </c>
@@ -5767,7 +5808,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>257</v>
       </c>
@@ -5811,7 +5852,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>264</v>
       </c>
@@ -5855,7 +5896,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -5899,7 +5940,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -5943,7 +5984,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>264</v>
       </c>
@@ -5987,7 +6028,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>264</v>
       </c>
@@ -6031,7 +6072,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>264</v>
       </c>
@@ -6075,7 +6116,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -6119,7 +6160,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>264</v>
       </c>
@@ -6163,7 +6204,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>264</v>
       </c>
@@ -6207,7 +6248,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -6251,7 +6292,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>264</v>
       </c>
@@ -6295,7 +6336,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>264</v>
       </c>
@@ -6339,7 +6380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>264</v>
       </c>
@@ -6383,7 +6424,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>264</v>
       </c>
@@ -6427,7 +6468,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>264</v>
       </c>
@@ -6471,7 +6512,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>264</v>
       </c>
@@ -6515,7 +6556,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>264</v>
       </c>
@@ -6559,7 +6600,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -6603,7 +6644,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>264</v>
       </c>
@@ -6647,7 +6688,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -6691,7 +6732,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>264</v>
       </c>
@@ -6735,7 +6776,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>264</v>
       </c>
@@ -6779,7 +6820,7 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>308</v>
       </c>
@@ -6823,7 +6864,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>308</v>
       </c>
@@ -6867,7 +6908,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>308</v>
       </c>
@@ -6911,7 +6952,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>317</v>
       </c>
@@ -6955,7 +6996,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>317</v>
       </c>
@@ -6999,7 +7040,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>317</v>
       </c>
@@ -7043,7 +7084,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>317</v>
       </c>
@@ -7087,7 +7128,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>317</v>
       </c>
@@ -7131,7 +7172,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>317</v>
       </c>
@@ -7175,7 +7216,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>331</v>
       </c>
@@ -7219,7 +7260,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>335</v>
       </c>
@@ -7263,7 +7304,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>335</v>
       </c>
@@ -7307,7 +7348,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>335</v>
       </c>
@@ -7351,7 +7392,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>335</v>
       </c>
@@ -7395,7 +7436,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>346</v>
       </c>
@@ -7439,7 +7480,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>350</v>
       </c>
@@ -7483,7 +7524,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>350</v>
       </c>
@@ -7527,7 +7568,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>350</v>
       </c>
@@ -7571,7 +7612,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>350</v>
       </c>
@@ -7615,7 +7656,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>350</v>
       </c>
@@ -7659,7 +7700,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>350</v>
       </c>
@@ -7703,7 +7744,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>364</v>
       </c>
@@ -7747,7 +7788,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>364</v>
       </c>
@@ -7791,7 +7832,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>364</v>
       </c>
@@ -7835,7 +7876,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>373</v>
       </c>
@@ -7879,7 +7920,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>376</v>
       </c>
@@ -7923,7 +7964,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>376</v>
       </c>
@@ -7967,7 +8008,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>376</v>
       </c>
@@ -8011,7 +8052,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>376</v>
       </c>
@@ -8055,7 +8096,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>376</v>
       </c>
@@ -8099,7 +8140,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>376</v>
       </c>
@@ -8143,7 +8184,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>390</v>
       </c>
@@ -8187,7 +8228,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>390</v>
       </c>
@@ -8243,19 +8284,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="66.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>396</v>
       </c>
@@ -8263,33 +8304,33 @@
         <v>397</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -8297,7 +8338,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -8305,7 +8346,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -8313,7 +8354,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8321,7 +8362,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8329,15 +8370,15 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -8345,38 +8386,106 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" t="s">
         <v>404</v>
       </c>
-      <c r="C15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C16" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>417</v>
+      </c>
+      <c r="E24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>414</v>
+      </c>
+      <c r="E27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" t="s">
+        <v>418</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
